--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -133,10 +133,13 @@
     <t>Phase 3 - Implementation</t>
   </si>
   <si>
+    <t>Code classes</t>
+  </si>
+  <si>
     <t>TBA</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 3 - Testing &amp; Maintenance </t>
+    <t xml:space="preserve">Phase 4 - Testing &amp; Maintenance </t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1888,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="51">
-        <v>0.95</v>
+        <v>1.0</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
@@ -2199,7 +2202,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="40"/>
@@ -2280,7 +2283,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
@@ -2361,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="44">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
@@ -2426,7 +2429,7 @@
     </row>
     <row r="24">
       <c r="B24" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="49">
         <v>45756.0</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="25">
       <c r="B25" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="49">
         <v>45756.0</v>
@@ -2588,7 +2591,7 @@
     </row>
     <row r="26">
       <c r="B26" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="49">
         <v>45756.0</v>
@@ -2669,7 +2672,7 @@
     </row>
     <row r="27">
       <c r="A27" s="52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -2740,7 +2743,7 @@
     </row>
     <row r="28">
       <c r="B28" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="49">
         <v>45756.0</v>
@@ -2821,7 +2824,7 @@
     </row>
     <row r="29">
       <c r="B29" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="49">
         <v>45756.0</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="30">
       <c r="B30" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="54">
         <v>45756.0</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="31">
       <c r="B31" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="54">
         <v>45756.0</v>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -133,13 +133,31 @@
     <t>Phase 3 - Implementation</t>
   </si>
   <si>
-    <t>Code classes</t>
+    <t>Implement their set of classes</t>
   </si>
   <si>
-    <t>TBA</t>
+    <t>Touch Base and check each others work</t>
+  </si>
+  <si>
+    <t>Make sure it works with each others</t>
+  </si>
+  <si>
+    <t>Final fixes and changes/ Fufilling Reqs.</t>
   </si>
   <si>
     <t xml:space="preserve">Phase 4 - Testing &amp; Maintenance </t>
+  </si>
+  <si>
+    <t>Creating a Testing Doc / Project Scedule</t>
+  </si>
+  <si>
+    <t>Make Tests for their classes</t>
+  </si>
+  <si>
+    <t>Check for Error Handeling</t>
+  </si>
+  <si>
+    <t>Check for any loose ends or flaws</t>
   </si>
 </sst>
 </file>
@@ -2229,20 +2247,20 @@
       <c r="AD21" s="36"/>
       <c r="AE21" s="36"/>
       <c r="AF21" s="36"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
       <c r="AK21" s="35"/>
       <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
+      <c r="AM21" s="33"/>
       <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
+      <c r="AO21" s="33"/>
       <c r="AP21" s="36"/>
       <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="33"/>
       <c r="AU21" s="35"/>
       <c r="AV21" s="34"/>
       <c r="AW21" s="34"/>
@@ -2310,20 +2328,20 @@
       <c r="AD22" s="36"/>
       <c r="AE22" s="36"/>
       <c r="AF22" s="36"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
       <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
+      <c r="AM22" s="33"/>
       <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
+      <c r="AO22" s="33"/>
       <c r="AP22" s="36"/>
       <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="33"/>
       <c r="AU22" s="35"/>
       <c r="AV22" s="34"/>
       <c r="AW22" s="34"/>
@@ -2364,7 +2382,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="44">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
@@ -2391,20 +2409,20 @@
       <c r="AD23" s="36"/>
       <c r="AE23" s="36"/>
       <c r="AF23" s="36"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
       <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
+      <c r="AM23" s="33"/>
       <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
+      <c r="AO23" s="33"/>
       <c r="AP23" s="36"/>
       <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="33"/>
       <c r="AU23" s="35"/>
       <c r="AV23" s="34"/>
       <c r="AW23" s="34"/>
@@ -2445,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="40"/>
@@ -2487,10 +2505,10 @@
       <c r="AS24" s="35"/>
       <c r="AT24" s="35"/>
       <c r="AU24" s="35"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="33"/>
       <c r="AZ24" s="34"/>
       <c r="BA24" s="35"/>
       <c r="BB24" s="35"/>
@@ -2510,7 +2528,7 @@
     </row>
     <row r="25">
       <c r="B25" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="49">
         <v>45756.0</v>
@@ -2523,10 +2541,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G25" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="40"/>
@@ -2572,11 +2590,11 @@
       <c r="AW25" s="34"/>
       <c r="AX25" s="34"/>
       <c r="AY25" s="34"/>
-      <c r="AZ25" s="34"/>
-      <c r="BA25" s="35"/>
-      <c r="BB25" s="35"/>
-      <c r="BC25" s="35"/>
-      <c r="BD25" s="35"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="33"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="33"/>
+      <c r="BD25" s="33"/>
       <c r="BE25" s="35"/>
       <c r="BF25" s="36"/>
       <c r="BG25" s="36"/>
@@ -2591,7 +2609,7 @@
     </row>
     <row r="26">
       <c r="B26" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="49">
         <v>45756.0</v>
@@ -2604,10 +2622,10 @@
         <v>28</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="40"/>
@@ -2659,11 +2677,11 @@
       <c r="BC26" s="35"/>
       <c r="BD26" s="35"/>
       <c r="BE26" s="35"/>
-      <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
-      <c r="BH26" s="36"/>
-      <c r="BI26" s="36"/>
-      <c r="BJ26" s="36"/>
+      <c r="BF26" s="33"/>
+      <c r="BG26" s="33"/>
+      <c r="BH26" s="33"/>
+      <c r="BI26" s="33"/>
+      <c r="BJ26" s="33"/>
       <c r="BK26" s="35"/>
       <c r="BL26" s="35"/>
       <c r="BM26" s="35"/>
@@ -2672,7 +2690,7 @@
     </row>
     <row r="27">
       <c r="A27" s="52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -2743,7 +2761,7 @@
     </row>
     <row r="28">
       <c r="B28" s="27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="49">
         <v>45756.0</v>
@@ -2759,7 +2777,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="40"/>
@@ -2816,7 +2834,7 @@
       <c r="BH28" s="36"/>
       <c r="BI28" s="36"/>
       <c r="BJ28" s="36"/>
-      <c r="BK28" s="35"/>
+      <c r="BK28" s="33"/>
       <c r="BL28" s="35"/>
       <c r="BM28" s="35"/>
       <c r="BN28" s="35"/>
@@ -2824,7 +2842,7 @@
     </row>
     <row r="29">
       <c r="B29" s="27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C29" s="49">
         <v>45756.0</v>
@@ -2837,10 +2855,10 @@
         <v>28</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G29" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
@@ -2898,14 +2916,14 @@
       <c r="BI29" s="36"/>
       <c r="BJ29" s="36"/>
       <c r="BK29" s="35"/>
-      <c r="BL29" s="35"/>
+      <c r="BL29" s="33"/>
       <c r="BM29" s="35"/>
       <c r="BN29" s="35"/>
       <c r="BO29" s="37"/>
     </row>
     <row r="30">
       <c r="B30" s="27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C30" s="54">
         <v>45756.0</v>
@@ -2918,10 +2936,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="40"/>
@@ -2980,13 +2998,13 @@
       <c r="BJ30" s="36"/>
       <c r="BK30" s="35"/>
       <c r="BL30" s="35"/>
-      <c r="BM30" s="35"/>
-      <c r="BN30" s="35"/>
-      <c r="BO30" s="37"/>
+      <c r="BM30" s="33"/>
+      <c r="BN30" s="33"/>
+      <c r="BO30" s="33"/>
     </row>
     <row r="31">
       <c r="B31" s="27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C31" s="54">
         <v>45756.0</v>
@@ -2999,10 +3017,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G31" s="44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="40"/>
@@ -3061,9 +3079,9 @@
       <c r="BJ31" s="36"/>
       <c r="BK31" s="35"/>
       <c r="BL31" s="35"/>
-      <c r="BM31" s="35"/>
-      <c r="BN31" s="35"/>
-      <c r="BO31" s="37"/>
+      <c r="BM31" s="33"/>
+      <c r="BN31" s="33"/>
+      <c r="BO31" s="33"/>
     </row>
     <row r="32">
       <c r="A32" s="55"/>
